--- a/data/Instances/InstancesS/outputS-4.xlsx
+++ b/data/Instances/InstancesS/outputS-4.xlsx
@@ -438,102 +438,102 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -548,27 +548,27 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
@@ -608,89 +608,89 @@
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>56</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>59</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -715,9 +715,7 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
@@ -734,14 +732,14 @@
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="inlineStr"/>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="n">
+        <v>1</v>
+      </c>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
@@ -753,102 +751,56 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
         <v>1</v>
       </c>
-      <c r="X3" t="n">
-        <v>1</v>
-      </c>
+      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
@@ -860,7 +812,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -868,7 +820,9 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -885,9 +839,7 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
-        <v>1</v>
-      </c>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
@@ -905,12 +857,8 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
@@ -923,93 +871,53 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="n">
         <v>1</v>
       </c>
@@ -1017,16 +925,14 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -1048,14 +954,14 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
@@ -1067,10 +973,10 @@
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
         <v>1</v>
@@ -1091,7 +997,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -1113,12 +1019,12 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="n">
-        <v>1</v>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
@@ -1131,21 +1037,17 @@
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
@@ -1156,7 +1058,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -1181,9 +1083,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="n">
-        <v>1</v>
-      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
@@ -1196,19 +1096,15 @@
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr"/>
@@ -1221,27 +1117,47 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -1252,21 +1168,31 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
+      <c r="AB9" t="n">
+        <v>1</v>
+      </c>
       <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
+      <c r="AD9" t="n">
+        <v>1</v>
+      </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
+      <c r="AH9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
+      <c r="AM9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1</v>
+      </c>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="n">
@@ -1278,13 +1204,17 @@
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
+      <c r="AX9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -1302,18 +1232,16 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="n">
-        <v>1</v>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
@@ -1326,19 +1254,13 @@
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr"/>
@@ -1351,7 +1273,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -1369,18 +1291,16 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="n">
-        <v>1</v>
-      </c>
+      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
@@ -1393,19 +1313,13 @@
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="inlineStr"/>
@@ -1418,114 +1332,70 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1</v>
-      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="inlineStr"/>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1533,7 +1403,9 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1550,9 +1422,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="n">
-        <v>1</v>
-      </c>
+      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
@@ -1560,24 +1430,20 @@
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
+      <c r="AF13" t="n">
+        <v>1</v>
+      </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr"/>
@@ -1590,70 +1456,106 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>1</v>
-      </c>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
+      <c r="AB14" t="n">
+        <v>1</v>
+      </c>
       <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AK14" t="n">
+        <v>1</v>
+      </c>
       <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
+      <c r="AM14" t="n">
+        <v>1</v>
+      </c>
       <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
+      <c r="AU14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1</v>
+      </c>
       <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
+      <c r="AX14" t="n">
+        <v>1</v>
+      </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -1661,7 +1563,9 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1678,9 +1582,7 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="n">
-        <v>1</v>
-      </c>
+      <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
@@ -1688,7 +1590,9 @@
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
+      <c r="AF15" t="n">
+        <v>1</v>
+      </c>
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
@@ -1698,12 +1602,8 @@
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="inlineStr"/>
@@ -1716,94 +1616,60 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="n">
-        <v>1</v>
-      </c>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
         <v>1</v>
       </c>
-      <c r="X16" t="n">
-        <v>1</v>
-      </c>
+      <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="n">
+        <v>1</v>
+      </c>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="inlineStr"/>
       <c r="AU16" t="inlineStr"/>
@@ -1815,7 +1681,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1842,9 +1708,7 @@
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
@@ -1857,18 +1721,12 @@
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr"/>
@@ -1880,7 +1738,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1888,30 +1746,32 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="n">
-        <v>1</v>
-      </c>
+      <c r="W18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
@@ -1924,19 +1784,13 @@
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr"/>
@@ -1949,7 +1803,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1976,9 +1830,7 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
@@ -1991,18 +1843,12 @@
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
       <c r="AT19" t="inlineStr"/>
       <c r="AU19" t="inlineStr"/>
@@ -2014,7 +1860,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -2022,7 +1868,9 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -2039,9 +1887,7 @@
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
-      <c r="X20" t="n">
-        <v>1</v>
-      </c>
+      <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
@@ -2059,12 +1905,8 @@
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="inlineStr"/>
@@ -2077,7 +1919,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -2085,15 +1927,15 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -2106,33 +1948,27 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
+      <c r="AF21" t="n">
+        <v>1</v>
+      </c>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
       <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr"/>
@@ -2152,12 +1988,16 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -2169,9 +2009,7 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
-      <c r="X22" t="n">
-        <v>1</v>
-      </c>
+      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
@@ -2189,12 +2027,8 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
       <c r="AT22" t="inlineStr"/>
@@ -2232,9 +2066,7 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="n">
-        <v>1</v>
-      </c>
+      <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
@@ -2247,19 +2079,13 @@
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
       <c r="AT23" t="inlineStr"/>
@@ -2272,7 +2098,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -2280,20 +2106,28 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>1</v>
+      </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
@@ -2329,106 +2163,66 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="n">
-        <v>1</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1</v>
-      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="inlineStr"/>
       <c r="AW25" t="inlineStr"/>
-      <c r="AX25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX25" t="inlineStr"/>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -2450,12 +2244,12 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
-      <c r="X26" t="n">
-        <v>1</v>
-      </c>
+      <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
@@ -2468,17 +2262,15 @@
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
+      <c r="AK26" t="n">
+        <v>1</v>
+      </c>
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="inlineStr"/>
@@ -2491,49 +2283,53 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
         <v>1</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>1</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
       <c r="S27" t="n">
         <v>1</v>
       </c>
-      <c r="T27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="n">
-        <v>1</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1</v>
-      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="n">
         <v>1</v>
       </c>
@@ -2542,149 +2338,101 @@
         <v>1</v>
       </c>
       <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
+      <c r="AH27" t="n">
+        <v>1</v>
+      </c>
       <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="n">
         <v>1</v>
       </c>
-      <c r="AN27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
       <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr"/>
-      <c r="AX27" t="inlineStr"/>
+      <c r="AX27" t="n">
+        <v>1</v>
+      </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="n">
-        <v>1</v>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="n">
-        <v>1</v>
-      </c>
+      <c r="V28" t="inlineStr"/>
       <c r="W28" t="n">
         <v>1</v>
       </c>
-      <c r="X28" t="n">
-        <v>1</v>
-      </c>
+      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="n">
         <v>1</v>
       </c>
       <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="inlineStr"/>
       <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
       <c r="AT28" t="inlineStr"/>
-      <c r="AU28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
@@ -2696,106 +2444,58 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
-      <c r="T29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="n">
-        <v>1</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1</v>
-      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
-      <c r="AN29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
       <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="inlineStr"/>
-      <c r="AW29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
       <c r="AY29" t="inlineStr"/>
     </row>
@@ -2805,36 +2505,64 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
+      <c r="W30" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1</v>
+      </c>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
+      <c r="AB30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1</v>
+      </c>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
@@ -2848,20 +2576,22 @@
         <v>1</v>
       </c>
       <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
       <c r="AT30" t="inlineStr"/>
       <c r="AU30" t="inlineStr"/>
-      <c r="AV30" t="inlineStr"/>
+      <c r="AV30" t="n">
+        <v>1</v>
+      </c>
       <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="inlineStr"/>
+      <c r="AX30" t="n">
+        <v>1</v>
+      </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -2884,17 +2614,21 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="n">
-        <v>1</v>
-      </c>
+      <c r="W31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
@@ -2902,24 +2636,20 @@
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
+      <c r="AF31" t="n">
+        <v>1</v>
+      </c>
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
       <c r="AT31" t="inlineStr"/>
@@ -2957,9 +2687,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
-      <c r="X32" t="n">
-        <v>1</v>
-      </c>
+      <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
@@ -2972,19 +2700,13 @@
       <c r="AH32" t="inlineStr"/>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
       <c r="AT32" t="inlineStr"/>
@@ -3004,100 +2726,50 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="n">
-        <v>1</v>
-      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="n">
-        <v>1</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1</v>
-      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="n">
-        <v>1</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1</v>
-      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
       <c r="AT33" t="inlineStr"/>
       <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="inlineStr"/>
-      <c r="AW33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="inlineStr"/>
       <c r="AY33" t="inlineStr"/>
     </row>
@@ -3111,14 +2783,10 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
@@ -3126,65 +2794,37 @@
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="n">
-        <v>1</v>
-      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
-      <c r="T34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>1</v>
+      </c>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="n">
-        <v>1</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1</v>
-      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
       <c r="AT34" t="inlineStr"/>
@@ -3205,28 +2845,28 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
-      <c r="X35" t="n">
-        <v>1</v>
-      </c>
+      <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
@@ -3239,19 +2879,13 @@
       <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
       <c r="AT35" t="inlineStr"/>
@@ -3264,7 +2898,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -3291,9 +2925,7 @@
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
@@ -3306,18 +2938,12 @@
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
       <c r="AT36" t="inlineStr"/>
       <c r="AU36" t="inlineStr"/>
@@ -3329,42 +2955,76 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
+      <c r="W37" t="n">
+        <v>1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1</v>
+      </c>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
+      <c r="AB37" t="n">
+        <v>1</v>
+      </c>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
+      <c r="AF37" t="n">
+        <v>1</v>
+      </c>
       <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
+      <c r="AH37" t="n">
+        <v>1</v>
+      </c>
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="inlineStr"/>
@@ -3374,19 +3034,27 @@
       <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
+      <c r="AR37" t="n">
+        <v>1</v>
+      </c>
       <c r="AS37" t="inlineStr"/>
-      <c r="AT37" t="inlineStr"/>
+      <c r="AT37" t="n">
+        <v>1</v>
+      </c>
       <c r="AU37" t="inlineStr"/>
-      <c r="AV37" t="inlineStr"/>
+      <c r="AV37" t="n">
+        <v>1</v>
+      </c>
       <c r="AW37" t="inlineStr"/>
-      <c r="AX37" t="inlineStr"/>
+      <c r="AX37" t="n">
+        <v>1</v>
+      </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -3403,19 +3071,17 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
-      <c r="P38" t="n">
-        <v>1</v>
-      </c>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
-      <c r="X38" t="n">
-        <v>1</v>
-      </c>
+      <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
@@ -3428,19 +3094,15 @@
       <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr"/>
-      <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
       <c r="AT38" t="inlineStr"/>
@@ -3453,7 +3115,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -3475,12 +3137,12 @@
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
-      <c r="X39" t="n">
-        <v>1</v>
-      </c>
+      <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
@@ -3500,13 +3162,11 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="n">
+        <v>1</v>
+      </c>
       <c r="AS39" t="inlineStr"/>
       <c r="AT39" t="inlineStr"/>
       <c r="AU39" t="inlineStr"/>
@@ -3518,7 +3178,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -3543,9 +3203,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
-      <c r="X40" t="n">
-        <v>1</v>
-      </c>
+      <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
@@ -3558,19 +3216,15 @@
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
-      <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
       <c r="AT40" t="inlineStr"/>
@@ -3583,7 +3237,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -3601,18 +3255,14 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
-      <c r="X41" t="n">
-        <v>1</v>
-      </c>
+      <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
@@ -3630,12 +3280,8 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
       <c r="AT41" t="inlineStr"/>
@@ -3648,38 +3294,66 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="n">
+        <v>1</v>
+      </c>
       <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
+      <c r="X42" t="n">
+        <v>1</v>
+      </c>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="n">
         <v>1</v>
       </c>
       <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
+      <c r="AB42" t="n">
+        <v>1</v>
+      </c>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
@@ -3694,18 +3368,20 @@
         <v>1</v>
       </c>
       <c r="AN42" t="inlineStr"/>
-      <c r="AO42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
       <c r="AT42" t="inlineStr"/>
-      <c r="AU42" t="inlineStr"/>
-      <c r="AV42" t="inlineStr"/>
+      <c r="AU42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1</v>
+      </c>
       <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="inlineStr"/>
       <c r="AY42" t="inlineStr"/>
@@ -3713,7 +3389,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -3752,13 +3428,17 @@
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
       <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr"/>
+      <c r="AL43" t="n">
+        <v>1</v>
+      </c>
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
+      <c r="AR43" t="n">
+        <v>1</v>
+      </c>
       <c r="AS43" t="inlineStr"/>
       <c r="AT43" t="inlineStr"/>
       <c r="AU43" t="inlineStr"/>
@@ -3770,7 +3450,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -3783,23 +3463,21 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
-      <c r="X44" t="n">
-        <v>1</v>
-      </c>
+      <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
@@ -3812,19 +3490,13 @@
       <c r="AH44" t="inlineStr"/>
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK44" t="inlineStr"/>
       <c r="AL44" t="inlineStr"/>
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
       <c r="AT44" t="inlineStr"/>
@@ -3837,29 +3509,47 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="n">
         <v>1</v>
       </c>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
@@ -3868,9 +3558,13 @@
         <v>1</v>
       </c>
       <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
+      <c r="Z45" t="n">
+        <v>1</v>
+      </c>
       <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
+      <c r="AB45" t="n">
+        <v>1</v>
+      </c>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
@@ -3883,50 +3577,78 @@
         <v>1</v>
       </c>
       <c r="AL45" t="inlineStr"/>
-      <c r="AM45" t="inlineStr"/>
-      <c r="AN45" t="inlineStr"/>
+      <c r="AM45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1</v>
+      </c>
       <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="n">
         <v>1</v>
       </c>
-      <c r="AQ45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
       <c r="AT45" t="inlineStr"/>
       <c r="AU45" t="inlineStr"/>
       <c r="AV45" t="inlineStr"/>
       <c r="AW45" t="inlineStr"/>
-      <c r="AX45" t="inlineStr"/>
+      <c r="AX45" t="n">
+        <v>1</v>
+      </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="n">
@@ -3934,10 +3656,16 @@
       </c>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
+      <c r="AA46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1</v>
+      </c>
       <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
+      <c r="AD46" t="n">
+        <v>1</v>
+      </c>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
@@ -3948,7 +3676,9 @@
         <v>1</v>
       </c>
       <c r="AL46" t="inlineStr"/>
-      <c r="AM46" t="inlineStr"/>
+      <c r="AM46" t="n">
+        <v>1</v>
+      </c>
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="n">
@@ -3960,16 +3690,22 @@
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
       <c r="AT46" t="inlineStr"/>
-      <c r="AU46" t="inlineStr"/>
+      <c r="AU46" t="n">
+        <v>1</v>
+      </c>
       <c r="AV46" t="inlineStr"/>
       <c r="AW46" t="inlineStr"/>
-      <c r="AX46" t="inlineStr"/>
-      <c r="AY46" t="inlineStr"/>
+      <c r="AX46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -3996,9 +3732,7 @@
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
@@ -4013,14 +3747,10 @@
       <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr"/>
-      <c r="AO47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
-      <c r="AR47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr"/>
       <c r="AT47" t="inlineStr"/>
       <c r="AU47" t="inlineStr"/>
@@ -4032,7 +3762,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -4046,9 +3776,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
@@ -4056,14 +3784,14 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
@@ -4076,18 +3804,12 @@
       <c r="AJ48" t="inlineStr"/>
       <c r="AK48" t="inlineStr"/>
       <c r="AL48" t="inlineStr"/>
-      <c r="AM48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr"/>
-      <c r="AO48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr"/>
       <c r="AQ48" t="inlineStr"/>
-      <c r="AR48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr"/>
       <c r="AT48" t="inlineStr"/>
       <c r="AU48" t="inlineStr"/>
@@ -4099,44 +3821,80 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
       <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
+      </c>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="W49" t="n">
+        <v>1</v>
+      </c>
       <c r="X49" t="n">
         <v>1</v>
       </c>
-      <c r="Y49" t="inlineStr"/>
+      <c r="Y49" t="n">
+        <v>1</v>
+      </c>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
+      <c r="AB49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1</v>
+      </c>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="inlineStr"/>
+      <c r="AH49" t="n">
+        <v>1</v>
+      </c>
       <c r="AI49" t="inlineStr"/>
       <c r="AJ49" t="inlineStr"/>
       <c r="AK49" t="inlineStr"/>
@@ -4150,19 +3908,27 @@
       <c r="AQ49" t="n">
         <v>1</v>
       </c>
-      <c r="AR49" t="inlineStr"/>
+      <c r="AR49" t="n">
+        <v>1</v>
+      </c>
       <c r="AS49" t="inlineStr"/>
       <c r="AT49" t="inlineStr"/>
-      <c r="AU49" t="inlineStr"/>
-      <c r="AV49" t="inlineStr"/>
+      <c r="AU49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1</v>
+      </c>
       <c r="AW49" t="inlineStr"/>
-      <c r="AX49" t="inlineStr"/>
+      <c r="AX49" t="n">
+        <v>1</v>
+      </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -4170,7 +3936,9 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -4195,7 +3963,9 @@
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="inlineStr"/>
+      <c r="AF50" t="n">
+        <v>1</v>
+      </c>
       <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="inlineStr"/>
       <c r="AI50" t="inlineStr"/>
@@ -4219,7 +3989,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -4232,23 +4002,23 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
+      <c r="T51" t="n">
+        <v>1</v>
+      </c>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
-      <c r="X51" t="n">
-        <v>1</v>
-      </c>
+      <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
@@ -4256,7 +4026,9 @@
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
+      <c r="AF51" t="n">
+        <v>1</v>
+      </c>
       <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="inlineStr"/>
       <c r="AI51" t="inlineStr"/>
@@ -4266,12 +4038,8 @@
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="inlineStr"/>
-      <c r="AP51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
       <c r="AR51" t="inlineStr"/>
       <c r="AS51" t="inlineStr"/>
       <c r="AT51" t="inlineStr"/>
@@ -4284,457 +4052,323 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="n">
-        <v>1</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1</v>
-      </c>
-      <c r="X52" t="n">
-        <v>1</v>
-      </c>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr"/>
       <c r="AI52" t="inlineStr"/>
-      <c r="AJ52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
       <c r="AM52" t="inlineStr"/>
-      <c r="AN52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr"/>
       <c r="AT52" t="inlineStr"/>
       <c r="AU52" t="inlineStr"/>
       <c r="AV52" t="inlineStr"/>
-      <c r="AW52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW52" t="inlineStr"/>
+      <c r="AX52" t="inlineStr"/>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="n">
-        <v>1</v>
-      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="n">
-        <v>1</v>
-      </c>
-      <c r="W53" t="n">
-        <v>1</v>
-      </c>
-      <c r="X53" t="n">
-        <v>1</v>
-      </c>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr"/>
       <c r="AI53" t="inlineStr"/>
-      <c r="AJ53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ53" t="inlineStr"/>
       <c r="AK53" t="n">
         <v>1</v>
       </c>
-      <c r="AL53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
+      <c r="AO53" t="inlineStr"/>
+      <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr"/>
+      <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
       <c r="AT53" t="inlineStr"/>
       <c r="AU53" t="inlineStr"/>
       <c r="AV53" t="inlineStr"/>
-      <c r="AW53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW53" t="inlineStr"/>
       <c r="AX53" t="inlineStr"/>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
         <v>1</v>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>1</v>
       </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="n">
         <v>1</v>
       </c>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
       <c r="R54" t="n">
         <v>1</v>
       </c>
-      <c r="S54" t="inlineStr"/>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W54" t="n">
-        <v>1</v>
-      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="n">
         <v>1</v>
       </c>
       <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
+      <c r="AB54" t="n">
+        <v>1</v>
+      </c>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="n">
         <v>1</v>
       </c>
-      <c r="AE54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr"/>
       <c r="AI54" t="inlineStr"/>
-      <c r="AJ54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="n">
         <v>1</v>
       </c>
-      <c r="AL54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM54" t="inlineStr"/>
-      <c r="AN54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="n">
         <v>1</v>
       </c>
-      <c r="AQ54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="n">
+        <v>1</v>
+      </c>
       <c r="AS54" t="inlineStr"/>
       <c r="AT54" t="inlineStr"/>
-      <c r="AU54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV54" t="inlineStr"/>
-      <c r="AW54" t="inlineStr"/>
-      <c r="AX54" t="inlineStr"/>
+      <c r="AU54" t="inlineStr"/>
+      <c r="AV54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>1</v>
+      </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
-      <c r="O55" t="n">
-        <v>1</v>
-      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="n">
-        <v>1</v>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="n">
-        <v>1</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1</v>
-      </c>
-      <c r="X55" t="n">
-        <v>1</v>
-      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
       <c r="AI55" t="inlineStr"/>
       <c r="AJ55" t="inlineStr"/>
-      <c r="AK55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="inlineStr"/>
-      <c r="AN55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN55" t="inlineStr"/>
+      <c r="AO55" t="inlineStr"/>
+      <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr"/>
       <c r="AT55" t="inlineStr"/>
       <c r="AU55" t="inlineStr"/>
       <c r="AV55" t="inlineStr"/>
-      <c r="AW55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW55" t="inlineStr"/>
+      <c r="AX55" t="inlineStr"/>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>1</v>
       </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="n">
-        <v>1</v>
-      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
       <c r="R56" t="n">
         <v>1</v>
       </c>
@@ -4743,67 +4377,51 @@
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="n">
-        <v>1</v>
-      </c>
-      <c r="W56" t="n">
-        <v>1</v>
-      </c>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="n">
         <v>1</v>
       </c>
       <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="n">
         <v>1</v>
       </c>
-      <c r="AE56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
       <c r="AI56" t="inlineStr"/>
-      <c r="AJ56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ56" t="inlineStr"/>
       <c r="AK56" t="n">
         <v>1</v>
       </c>
-      <c r="AL56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM56" t="inlineStr"/>
-      <c r="AN56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="n">
         <v>1</v>
       </c>
-      <c r="AP56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP56" t="inlineStr"/>
+      <c r="AQ56" t="inlineStr"/>
+      <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr"/>
       <c r="AT56" t="inlineStr"/>
-      <c r="AU56" t="inlineStr"/>
+      <c r="AU56" t="n">
+        <v>1</v>
+      </c>
       <c r="AV56" t="inlineStr"/>
-      <c r="AW56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr"/>
+      <c r="AX56" t="n">
+        <v>1</v>
+      </c>
       <c r="AY56" t="n">
         <v>1</v>
       </c>
@@ -4811,113 +4429,109 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="n">
-        <v>1</v>
-      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
         <v>1</v>
       </c>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
       <c r="O57" t="n">
         <v>1</v>
       </c>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
       <c r="R57" t="n">
         <v>1</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
       </c>
-      <c r="T57" t="inlineStr"/>
+      <c r="T57" t="n">
+        <v>1</v>
+      </c>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="n">
-        <v>1</v>
-      </c>
+      <c r="V57" t="inlineStr"/>
       <c r="W57" t="n">
         <v>1</v>
       </c>
       <c r="X57" t="n">
         <v>1</v>
       </c>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB57" t="inlineStr"/>
+      <c r="Y57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="n">
+        <v>1</v>
+      </c>
       <c r="AC57" t="n">
         <v>1</v>
       </c>
       <c r="AD57" t="n">
         <v>1</v>
       </c>
-      <c r="AE57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="n">
         <v>1</v>
       </c>
       <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ57" t="inlineStr"/>
       <c r="AK57" t="n">
         <v>1</v>
       </c>
-      <c r="AL57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
+      <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr"/>
+      <c r="AR57" t="inlineStr"/>
       <c r="AS57" t="inlineStr"/>
       <c r="AT57" t="inlineStr"/>
       <c r="AU57" t="inlineStr"/>
-      <c r="AV57" t="inlineStr"/>
-      <c r="AW57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW57" t="inlineStr"/>
       <c r="AX57" t="n">
         <v>1</v>
       </c>
-      <c r="AY57" t="inlineStr"/>
+      <c r="AY57" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4958,37 +4572,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4997,28 +4611,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5027,103 +4641,103 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5132,28 +4746,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5162,43 +4776,43 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5207,13 +4821,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -5222,13 +4836,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5237,22 +4851,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
@@ -5267,7 +4881,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
@@ -5278,62 +4892,62 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5348,16 +4962,16 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
@@ -5368,11 +4982,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -5383,11 +4997,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
@@ -5402,7 +5016,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
@@ -5413,7 +5027,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -5428,11 +5042,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -5443,11 +5057,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
@@ -5462,133 +5076,133 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5597,58 +5211,58 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5657,43 +5271,43 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5702,43 +5316,43 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5747,28 +5361,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5777,13 +5391,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5792,7 +5406,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5834,7 +5448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5843,13 +5457,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3080021318447539</v>
+        <v>0.04037014981655322</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5858,13 +5472,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9871889762742267</v>
+        <v>0.001533600982423678</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5873,28 +5487,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6212086628568935</v>
+        <v>0.9809854901785342</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9698747635747947</v>
+        <v>0.9986249955983729</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5903,43 +5517,43 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.02122966607283459</v>
+        <v>0.2614744907493391</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7493193199676702</v>
+        <v>0.3391987217844532</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9157106034410036</v>
+        <v>0.02560314309014335</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5948,13 +5562,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.00865251047308423</v>
+        <v>0.9892354099395321</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5963,58 +5577,58 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.278185996159884</v>
+        <v>0.03194647701018139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9196494575443697</v>
+        <v>0.9922144501231736</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.7400145001924396</v>
+        <v>0.6093107670352016</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.707871247136349</v>
+        <v>0.04873090177830472</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -6023,13 +5637,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9808974619930944</v>
+        <v>0.5812473774228768</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -6038,13 +5652,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.04097785730459721</v>
+        <v>0.6604728014265512</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -6053,28 +5667,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9735382575054436</v>
+        <v>0.9300513183751069</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8395079661218499</v>
+        <v>0.004474963807411125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -6083,13 +5697,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.408379272551557</v>
+        <v>0.04708987399683284</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -6098,37 +5712,37 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.3556479121895357</v>
+        <v>0.001867883268058668</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9922576066390755</v>
+        <v>0.6943192951311824</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.9991788080678885</v>
+        <v>0.5506875582712819</v>
       </c>
     </row>
     <row r="22">
@@ -6143,7 +5757,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.008528447590932775</v>
+        <v>0.9316610413174506</v>
       </c>
     </row>
     <row r="23">
@@ -6154,32 +5768,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01064411226180574</v>
+        <v>0.7949665236079411</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.02703702489087646</v>
+        <v>0.04912244113209176</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -6188,28 +5802,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.98184076515818</v>
+        <v>0.7701126688070823</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.002487117127748284</v>
+        <v>0.5733842549356035</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -6218,13 +5832,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5966637087847043</v>
+        <v>0.9686340880721733</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -6233,7 +5847,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.8571639452659141</v>
+        <v>0.03362244992834101</v>
       </c>
     </row>
     <row r="29">
@@ -6248,7 +5862,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.1679846481714514</v>
+        <v>0.6154449363873821</v>
       </c>
     </row>
     <row r="30">
@@ -6263,7 +5877,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01268178742115255</v>
+        <v>0.4395762361913774</v>
       </c>
     </row>
     <row r="31">
@@ -6278,7 +5892,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.03372170670587051</v>
+        <v>0.9810864279897763</v>
       </c>
     </row>
     <row r="32">
@@ -6289,11 +5903,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4003433256294123</v>
+        <v>0.7213590706308349</v>
       </c>
     </row>
     <row r="33">
@@ -6308,7 +5922,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9812997362044952</v>
+        <v>0.9848120494473382</v>
       </c>
     </row>
     <row r="34">
@@ -6323,7 +5937,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9799915639866453</v>
+        <v>0.3151711148566961</v>
       </c>
     </row>
     <row r="35">
@@ -6338,13 +5952,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9984268521207887</v>
+        <v>0.8051191273423655</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6353,58 +5967,58 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.536392511997894</v>
+        <v>0.9650640696449173</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.2070479546634693</v>
+        <v>0.6291308475393599</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.2292314863731331</v>
+        <v>0.967934698148075</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.3625926176375405</v>
+        <v>0.4262826265657407</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6413,13 +6027,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.01826076648507604</v>
+        <v>0.8127448287608834</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6428,43 +6042,43 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.03026283413489753</v>
+        <v>0.8512290186199849</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.02615207111922595</v>
+        <v>0.5731493206476846</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.0274054224614965</v>
+        <v>0.7508601425539704</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6473,28 +6087,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.08703054682318043</v>
+        <v>0.653522049775669</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.9858600763635148</v>
+        <v>0.9919405177037535</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6503,13 +6117,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.9797824574371484</v>
+        <v>0.8049707928951677</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6518,28 +6132,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.8582883387275693</v>
+        <v>0.6253459558081601</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.9928914552559982</v>
+        <v>0.5917333400048446</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6548,13 +6162,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.7810253728894779</v>
+        <v>0.9795445841283794</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6563,13 +6177,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.4378489801697849</v>
+        <v>0.02961507452632969</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6578,7 +6192,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.9906641699963127</v>
+        <v>0.6943390901213793</v>
       </c>
     </row>
   </sheetData>
